--- a/Paracetamol_ServiceEval_Data.xlsx
+++ b/Paracetamol_ServiceEval_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lilyoatley/Desktop/Project /"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sukgao/lily/para/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48593810-5857-FF42-881C-8413B76E09CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A10B5DDE-9C78-234D-B073-A44BDA7693B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="740" windowWidth="26700" windowHeight="17040" xr2:uid="{C2132FC2-CBE7-FF4A-8606-EB2103AC9B7F}"/>
+    <workbookView xWindow="1500" yWindow="760" windowWidth="26700" windowHeight="17040" xr2:uid="{C2132FC2-CBE7-FF4A-8606-EB2103AC9B7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Clinical Data" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="153">
   <si>
     <t>Study ID</t>
   </si>
@@ -494,9 +494,6 @@
   </si>
   <si>
     <t>P042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oral </t>
   </si>
   <si>
     <t xml:space="preserve">Olivia </t>
@@ -946,7 +943,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A44" sqref="A44"/>
+      <selection pane="bottomLeft" activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2519,7 +2516,7 @@
         <v>45993</v>
       </c>
       <c r="E42" t="s">
-        <v>152</v>
+        <v>17</v>
       </c>
       <c r="F42">
         <v>-30</v>
@@ -2540,7 +2537,7 @@
         <v>21</v>
       </c>
       <c r="M42" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
